--- a/pred_ohlcv/54_21/2020-01-20 RDN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 RDN ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>126702.4178000001</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>133499.2253850456</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -938,7 +938,7 @@
         <v>139957.2139000001</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>144342.7006000001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>143063.4111000001</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>212919.5635000002</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>211579.3480000002</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>212497.5671000002</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>211995.2644000002</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>211995.2644000002</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>218556.6668000002</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>216291.4156855348</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>217985.3080000002</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>237931.2657000002</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>235524.8256000002</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>233347.5596000002</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>230521.8217000002</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>220387.5760000002</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>213590.5543000002</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>213590.5543000002</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>213349.5167000002</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>213212.6267000001</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>214279.2641335211</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>208782.5835335211</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>208782.5835335211</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>208589.2161335211</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>208589.2161335211</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>208189.2161335211</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>209378.9303335211</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>212817.0275335211</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>212270.0001335211</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>212414.2721335211</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>205492.3440335211</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>205014.7090335211</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>199245.1319335211</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>190590.0881335211</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>197934.0141808941</v>
       </c>
       <c r="H233">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>188301.0019808941</v>
       </c>
       <c r="H234">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>187501.0019808941</v>
       </c>
       <c r="H235">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>187501.0019808941</v>
       </c>
       <c r="H236">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>187501.0019808941</v>
       </c>
       <c r="H237">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>184940.0338808941</v>
       </c>
       <c r="H238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>183344.7015808941</v>
       </c>
       <c r="H239">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>183594.7765808941</v>
       </c>
       <c r="H240">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>167997.4460808941</v>
       </c>
       <c r="H242">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>168379.9238808941</v>
       </c>
       <c r="H243">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>166621.3457808941</v>
       </c>
       <c r="H244">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>166326.6147808941</v>
       </c>
       <c r="H245">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>159547.2899808941</v>
       </c>
       <c r="H247">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>161576.8525808941</v>
       </c>
       <c r="H248">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>160436.8236808941</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>160595.7690808941</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>148753.9525808941</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>148989.9525808941</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>148885.162580894</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>148622.162580894</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>148622.162580894</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>142922.111780894</v>
       </c>
       <c r="H256">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>142922.111780894</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>144192.111780894</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>142893.946580894</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>142471.734380894</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>142552.194380894</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>142481.374380894</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>142481.374380894</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>142760.592280894</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>142528.615080894</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>111859.108980894</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>117562.108980894</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>113615.108980894</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-20 RDN ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-20 RDN ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>109905.6996</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>112201.5143</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>129619.7669</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>129619.7669</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -730,7 +730,7 @@
         <v>126702.4178000001</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>133499.2253850456</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -938,7 +938,7 @@
         <v>139957.2139000001</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>144342.7006000001</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>143063.4111000001</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>211579.3480000002</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>217985.3080000002</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>241028.4437000002</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>237931.2657000002</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>235524.8256000002</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>235524.8256000002</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>233347.5596000002</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>230521.8217000002</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>205432.7382000002</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>220387.5760000002</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>213590.5543000002</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>213590.5543000002</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>213329.9427000002</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>213349.5167000002</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>213212.6267000001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>214279.2641335211</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>208782.5835335211</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>208782.5835335211</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>208589.2161335211</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>208589.2161335211</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>208189.2161335211</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>209378.9303335211</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>212817.0275335211</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>212270.0001335211</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>212414.2721335211</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>205492.3440335211</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>205014.7090335211</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>207201.3232335211</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>201304.9046335211</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>199245.1319335211</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>193353.0881335211</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>193367.0881335211</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>190590.0881335211</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>197421.6189335211</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>159725.0365808941</v>
       </c>
       <c r="H241">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>166458.8723808941</v>
       </c>
       <c r="H246">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>141417.130780894</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>142487.130780894</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>110800.563280894</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>116262.108980894</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>114362.108980894</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>116779.730380894</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>116572.312480894</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
